--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf2-Igf2r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H2">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I2">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J2">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N2">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O2">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P2">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q2">
-        <v>266.1425282586996</v>
+        <v>110.7174469031367</v>
       </c>
       <c r="R2">
-        <v>2395.282754328297</v>
+        <v>996.4570221282301</v>
       </c>
       <c r="S2">
-        <v>0.04571901321482707</v>
+        <v>0.01387819167829951</v>
       </c>
       <c r="T2">
-        <v>0.0588632785977326</v>
+        <v>0.01992501400585175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H3">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I3">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J3">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>126.504335</v>
       </c>
       <c r="O3">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P3">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q3">
-        <v>440.5199173382712</v>
+        <v>259.8813834558428</v>
       </c>
       <c r="R3">
-        <v>3964.67925604444</v>
+        <v>2338.932451102585</v>
       </c>
       <c r="S3">
-        <v>0.07567424888444003</v>
+        <v>0.03257556739343186</v>
       </c>
       <c r="T3">
-        <v>0.09743067668211039</v>
+        <v>0.04676896324883641</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H4">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I4">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J4">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N4">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O4">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P4">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q4">
-        <v>116.8458226971627</v>
+        <v>47.46029905122133</v>
       </c>
       <c r="R4">
-        <v>1051.612404274464</v>
+        <v>427.142691460992</v>
       </c>
       <c r="S4">
-        <v>0.02007223628234358</v>
+        <v>0.005949045482583341</v>
       </c>
       <c r="T4">
-        <v>0.02584302576294298</v>
+        <v>0.008541084984960097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H5">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I5">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J5">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N5">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O5">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P5">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q5">
-        <v>263.68311322918</v>
+        <v>161.2656072313108</v>
       </c>
       <c r="R5">
-        <v>1582.09867937508</v>
+        <v>967.5936433878649</v>
       </c>
       <c r="S5">
-        <v>0.04529652520071287</v>
+        <v>0.02021429387033752</v>
       </c>
       <c r="T5">
-        <v>0.03887954988398674</v>
+        <v>0.01934786595742947</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.44675466666667</v>
+        <v>6.162983666666666</v>
       </c>
       <c r="H6">
-        <v>31.340264</v>
+        <v>18.488951</v>
       </c>
       <c r="I6">
-        <v>0.2092639271807731</v>
+        <v>0.08645678993430435</v>
       </c>
       <c r="J6">
-        <v>0.2499877559676775</v>
+        <v>0.1144526672494406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N6">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O6">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P6">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q6">
-        <v>130.9895619615582</v>
+        <v>110.4103002318131</v>
       </c>
       <c r="R6">
-        <v>1178.906057654024</v>
+        <v>993.6927020863181</v>
       </c>
       <c r="S6">
-        <v>0.02250190359844953</v>
+        <v>0.01383969150965212</v>
       </c>
       <c r="T6">
-        <v>0.02897122504090482</v>
+        <v>0.01986973905236292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>37.863356</v>
       </c>
       <c r="I7">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J7">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N7">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O7">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P7">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q7">
-        <v>321.5368349864315</v>
+        <v>226.7372609459867</v>
       </c>
       <c r="R7">
-        <v>2893.831514877884</v>
+        <v>2040.63534851388</v>
       </c>
       <c r="S7">
-        <v>0.05523486570890729</v>
+        <v>0.02842102356978998</v>
       </c>
       <c r="T7">
-        <v>0.07111494890001981</v>
+        <v>0.04080425647774991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>37.863356</v>
       </c>
       <c r="I8">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J8">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>126.504335</v>
       </c>
       <c r="O8">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P8">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q8">
         <v>532.2087412942511</v>
@@ -948,10 +948,10 @@
         <v>4789.878671648259</v>
       </c>
       <c r="S8">
-        <v>0.0914249166996218</v>
+        <v>0.06671121066411516</v>
       </c>
       <c r="T8">
-        <v>0.117709678403974</v>
+        <v>0.09577773802535414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>37.863356</v>
       </c>
       <c r="I9">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J9">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N9">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O9">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P9">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q9">
-        <v>141.1658492058507</v>
+        <v>97.19351837986132</v>
       </c>
       <c r="R9">
-        <v>1270.492642852656</v>
+        <v>874.7416654187518</v>
       </c>
       <c r="S9">
-        <v>0.02425002635824929</v>
+        <v>0.01218299658900307</v>
       </c>
       <c r="T9">
-        <v>0.03122193497092053</v>
+        <v>0.01749121090816882</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>37.863356</v>
       </c>
       <c r="I10">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J10">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N10">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O10">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P10">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q10">
-        <v>318.56552284897</v>
+        <v>330.2543825853233</v>
       </c>
       <c r="R10">
-        <v>1911.39313709382</v>
+        <v>1981.52629551194</v>
       </c>
       <c r="S10">
-        <v>0.05472444199058319</v>
+        <v>0.04139667010319879</v>
       </c>
       <c r="T10">
-        <v>0.04697185187645991</v>
+        <v>0.03962232019471699</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>37.863356</v>
       </c>
       <c r="I11">
-        <v>0.252819649917553</v>
+        <v>0.1770540803477592</v>
       </c>
       <c r="J11">
-        <v>0.3020196447561928</v>
+        <v>0.2343865850050179</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N11">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O11">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P11">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q11">
-        <v>158.2534345222662</v>
+        <v>226.1082580479565</v>
       </c>
       <c r="R11">
-        <v>1424.280910700395</v>
+        <v>2034.974322431608</v>
       </c>
       <c r="S11">
-        <v>0.02718539916019136</v>
+        <v>0.02834217942165219</v>
       </c>
       <c r="T11">
-        <v>0.03500123060481858</v>
+        <v>0.0406910593990281</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H12">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I12">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J12">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N12">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O12">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P12">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q12">
-        <v>26.37154715132156</v>
+        <v>2.67220850286</v>
       </c>
       <c r="R12">
-        <v>237.343924361894</v>
+        <v>24.04987652574</v>
       </c>
       <c r="S12">
-        <v>0.004530208383437096</v>
+        <v>0.0003349555363168532</v>
       </c>
       <c r="T12">
-        <v>0.005832648157278264</v>
+        <v>0.0004808979373650388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H13">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I13">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J13">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>126.504335</v>
       </c>
       <c r="O13">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P13">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q13">
-        <v>43.65026456760111</v>
+        <v>6.272337937970001</v>
       </c>
       <c r="R13">
-        <v>392.85238110841</v>
+        <v>56.45104144173</v>
       </c>
       <c r="S13">
-        <v>0.007498414611350713</v>
+        <v>0.0007862239476166197</v>
       </c>
       <c r="T13">
-        <v>0.009654216862364434</v>
+        <v>0.001128787058943164</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H14">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I14">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J14">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N14">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O14">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P14">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q14">
-        <v>11.57802604061067</v>
+        <v>1.145472716544</v>
       </c>
       <c r="R14">
-        <v>104.202234365496</v>
+        <v>10.309254448896</v>
       </c>
       <c r="S14">
-        <v>0.001988918978923047</v>
+        <v>0.0001435825189896942</v>
       </c>
       <c r="T14">
-        <v>0.00256073532065423</v>
+        <v>0.0002061423972359829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H15">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I15">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J15">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N15">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O15">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P15">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q15">
-        <v>26.127848484145</v>
+        <v>3.892207948395</v>
       </c>
       <c r="R15">
-        <v>156.76709090487</v>
+        <v>23.35324769037</v>
       </c>
       <c r="S15">
-        <v>0.004488344865201294</v>
+        <v>0.0004878798190395808</v>
       </c>
       <c r="T15">
-        <v>0.00385249922173684</v>
+        <v>0.0004669682454732783</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.035148666666667</v>
+        <v>0.148746</v>
       </c>
       <c r="H16">
-        <v>3.105446</v>
+        <v>0.446238</v>
       </c>
       <c r="I16">
-        <v>0.02073555684176186</v>
+        <v>0.002086668141783929</v>
       </c>
       <c r="J16">
-        <v>0.02477080208446235</v>
+        <v>0.002762359493951598</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N16">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O16">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P16">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q16">
-        <v>12.97950174367622</v>
+        <v>2.664795398876001</v>
       </c>
       <c r="R16">
-        <v>116.815515693086</v>
+        <v>23.98315858988401</v>
       </c>
       <c r="S16">
-        <v>0.002229670002849711</v>
+        <v>0.000334026319821181</v>
       </c>
       <c r="T16">
-        <v>0.002870702522428583</v>
+        <v>0.0004795638549341348</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H17">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I17">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J17">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N17">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O17">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P17">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q17">
-        <v>621.5427806876295</v>
+        <v>939.7371034342649</v>
       </c>
       <c r="R17">
-        <v>3729.256684125777</v>
+        <v>5638.42262060559</v>
       </c>
       <c r="S17">
-        <v>0.1067710703349765</v>
+        <v>0.117794006396125</v>
       </c>
       <c r="T17">
-        <v>0.09164524512335102</v>
+        <v>0.1127451030918827</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H18">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I18">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J18">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>126.504335</v>
       </c>
       <c r="O18">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P18">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q18">
-        <v>1028.779489554443</v>
+        <v>2205.796695609718</v>
       </c>
       <c r="R18">
-        <v>6172.676937326655</v>
+        <v>13234.7801736583</v>
       </c>
       <c r="S18">
-        <v>0.1767277983936607</v>
+        <v>0.2764918285355086</v>
       </c>
       <c r="T18">
-        <v>0.1516914867771214</v>
+        <v>0.2646407968115817</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H19">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I19">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J19">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N19">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O19">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P19">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q19">
-        <v>272.878889466078</v>
+        <v>402.8290500370559</v>
       </c>
       <c r="R19">
-        <v>1637.273336796468</v>
+        <v>2416.974300222335</v>
       </c>
       <c r="S19">
-        <v>0.04687621191236335</v>
+        <v>0.05049374715886071</v>
       </c>
       <c r="T19">
-        <v>0.04023544877544784</v>
+        <v>0.04832947705146131</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H20">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I20">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J20">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N20">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O20">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P20">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q20">
-        <v>615.7991227073962</v>
+        <v>1368.775011184136</v>
       </c>
       <c r="R20">
-        <v>2463.196490829585</v>
+        <v>5475.100044736544</v>
       </c>
       <c r="S20">
-        <v>0.1057844021131864</v>
+        <v>0.1715729769879821</v>
       </c>
       <c r="T20">
-        <v>0.0605322361289738</v>
+        <v>0.1094793279110202</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.3970965</v>
+        <v>52.3095915</v>
       </c>
       <c r="H21">
-        <v>48.794193</v>
+        <v>104.619183</v>
       </c>
       <c r="I21">
-        <v>0.4887098805611491</v>
+        <v>0.7338197873743252</v>
       </c>
       <c r="J21">
-        <v>0.3892102125343858</v>
+        <v>0.6476270362665431</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N21">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O21">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P21">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q21">
-        <v>305.9098337846354</v>
+        <v>937.1301328861491</v>
       </c>
       <c r="R21">
-        <v>1835.459002707812</v>
+        <v>5622.780797316895</v>
       </c>
       <c r="S21">
-        <v>0.05255039780696204</v>
+        <v>0.1174672282958488</v>
       </c>
       <c r="T21">
-        <v>0.04510579572949171</v>
+        <v>0.1124323314005972</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H22">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I22">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J22">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.47609633333333</v>
+        <v>17.96491</v>
       </c>
       <c r="N22">
-        <v>76.42828900000001</v>
+        <v>53.89473</v>
       </c>
       <c r="O22">
-        <v>0.2184753666375218</v>
+        <v>0.1605217090392217</v>
       </c>
       <c r="P22">
-        <v>0.2354646465379024</v>
+        <v>0.1740895558373204</v>
       </c>
       <c r="Q22">
-        <v>36.20948992375478</v>
+        <v>0.7461785251533334</v>
       </c>
       <c r="R22">
-        <v>325.885409313793</v>
+        <v>6.71560672638</v>
       </c>
       <c r="S22">
-        <v>0.006220208995373813</v>
+        <v>9.353185869042485E-05</v>
       </c>
       <c r="T22">
-        <v>0.008008525759520728</v>
+        <v>0.0001342843244710402</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H23">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I23">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J23">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>126.504335</v>
       </c>
       <c r="O23">
-        <v>0.3616210873222725</v>
+        <v>0.3767843730745145</v>
       </c>
       <c r="P23">
-        <v>0.389741794772972</v>
+        <v>0.4086314838509364</v>
       </c>
       <c r="Q23">
-        <v>59.93405718521056</v>
+        <v>1.751466574112222</v>
       </c>
       <c r="R23">
-        <v>539.4065146668951</v>
+        <v>15.76319916701</v>
       </c>
       <c r="S23">
-        <v>0.01029570873319933</v>
+        <v>0.0002195425338422916</v>
       </c>
       <c r="T23">
-        <v>0.01325573604740176</v>
+        <v>0.0003151987062210566</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H24">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I24">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J24">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.184892</v>
+        <v>7.700863999999999</v>
       </c>
       <c r="N24">
-        <v>33.554676</v>
+        <v>23.102592</v>
       </c>
       <c r="O24">
-        <v>0.09591828153451469</v>
+        <v>0.06880946524967933</v>
       </c>
       <c r="P24">
-        <v>0.1033771660652228</v>
+        <v>0.07462547785230264</v>
       </c>
       <c r="Q24">
-        <v>15.89722494660134</v>
+        <v>0.3198579531946666</v>
       </c>
       <c r="R24">
-        <v>143.075024519412</v>
+        <v>2.878721578752</v>
       </c>
       <c r="S24">
-        <v>0.002730888002635435</v>
+        <v>4.009350024253836E-05</v>
       </c>
       <c r="T24">
-        <v>0.00351602123525717</v>
+        <v>5.756251047644281E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H25">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I25">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J25">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.2406725</v>
+        <v>26.1668075</v>
       </c>
       <c r="N25">
-        <v>50.481345</v>
+        <v>52.33361499999999</v>
       </c>
       <c r="O25">
-        <v>0.2164564424024374</v>
+        <v>0.2338080547022124</v>
       </c>
       <c r="P25">
-        <v>0.1555258165884481</v>
+        <v>0.1690468769527434</v>
       </c>
       <c r="Q25">
-        <v>35.87487912587751</v>
+        <v>1.086847071781667</v>
       </c>
       <c r="R25">
-        <v>215.249274755265</v>
+        <v>6.521082430689999</v>
       </c>
       <c r="S25">
-        <v>0.006162728232753625</v>
+        <v>0.0001362339216544669</v>
       </c>
       <c r="T25">
-        <v>0.005289679477290836</v>
+        <v>0.0001303946441034679</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.421312333333334</v>
+        <v>0.04153533333333333</v>
       </c>
       <c r="H26">
-        <v>4.263937</v>
+        <v>0.124606</v>
       </c>
       <c r="I26">
-        <v>0.028470985498763</v>
+        <v>0.0005826742018275633</v>
       </c>
       <c r="J26">
-        <v>0.03401158465728148</v>
+        <v>0.0007713519850468424</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>12.53878033333333</v>
+        <v>17.91507266666667</v>
       </c>
       <c r="N26">
-        <v>37.61634099999999</v>
+        <v>53.74521800000001</v>
       </c>
       <c r="O26">
-        <v>0.1075288221032534</v>
+        <v>0.1600763979343721</v>
       </c>
       <c r="P26">
-        <v>0.1158905760354547</v>
+        <v>0.1736066055066972</v>
       </c>
       <c r="Q26">
-        <v>17.82152313272411</v>
+        <v>0.744108514900889</v>
       </c>
       <c r="R26">
-        <v>160.393708194517</v>
+        <v>6.696976634108001</v>
       </c>
       <c r="S26">
-        <v>0.003061451534800795</v>
+        <v>9.327238739784167E-05</v>
       </c>
       <c r="T26">
-        <v>0.003941622137810983</v>
+        <v>0.0001339117997748349</v>
       </c>
     </row>
   </sheetData>
